--- a/Danger Signs.xlsx
+++ b/Danger Signs.xlsx
@@ -1640,7 +1640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1672,7 +1672,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1701,6 +1700,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1717,24 +1736,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3616,8 +3617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3639,101 +3640,101 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="44">
+      <c r="A2" s="51">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="22">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="41">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="30" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="41">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="30" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="41">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="30" t="s">
+      <c r="A6" s="51"/>
+      <c r="B6" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="41">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="41" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+      <c r="A8" s="52">
         <v>2</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="41">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="30" t="s">
+      <c r="A10" s="53"/>
+      <c r="B10" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="41">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="54"/>
+      <c r="B11" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="48">
+      <c r="A12" s="55">
         <v>3</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -3745,25 +3746,25 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="30" t="s">
+      <c r="A13" s="55"/>
+      <c r="B13" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="29">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="29">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="8" t="s">
         <v>62</v>
       </c>
@@ -3772,7 +3773,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="10" t="s">
         <v>63</v>
       </c>
@@ -3781,7 +3782,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="48">
+      <c r="A17" s="55">
         <v>4</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -3792,25 +3793,25 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="30" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="29">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="30" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="8" t="s">
         <v>68</v>
       </c>
@@ -3819,7 +3820,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="8" t="s">
         <v>69</v>
       </c>
@@ -3828,16 +3829,16 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="35" t="s">
+      <c r="A22" s="55"/>
+      <c r="B22" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="34">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="50">
+      <c r="A23" s="48">
         <v>5</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -3848,7 +3849,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="12" t="s">
         <v>72</v>
       </c>
@@ -3857,7 +3858,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="13" t="s">
         <v>73</v>
       </c>
@@ -3866,7 +3867,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="12" t="s">
         <v>74</v>
       </c>
@@ -3875,7 +3876,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="12" t="s">
         <v>75</v>
       </c>
@@ -3884,7 +3885,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="15" t="s">
         <v>76</v>
       </c>
@@ -3893,7 +3894,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="50">
+      <c r="A29" s="48">
         <v>6</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -3905,7 +3906,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="12" t="s">
         <v>78</v>
       </c>
@@ -3914,52 +3915,52 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="12" t="s">
+      <c r="A31" s="49"/>
+      <c r="B31" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="31">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="49"/>
+      <c r="B32" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="31">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="49"/>
+      <c r="B33" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="31">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="12" t="s">
+      <c r="A34" s="49"/>
+      <c r="B34" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="31">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
-      <c r="B35" s="15" t="s">
+      <c r="A35" s="50"/>
+      <c r="B35" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="38">
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="50">
+      <c r="A36" s="48">
         <v>7</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -3971,7 +3972,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="12" t="s">
         <v>85</v>
       </c>
@@ -3980,7 +3981,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="12" t="s">
         <v>86</v>
       </c>
@@ -3989,7 +3990,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="12" t="s">
         <v>87</v>
       </c>
@@ -3998,7 +3999,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="12" t="s">
         <v>88</v>
       </c>
@@ -4007,7 +4008,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
+      <c r="A41" s="49"/>
       <c r="B41" s="12" t="s">
         <v>89</v>
       </c>
@@ -4016,7 +4017,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
+      <c r="A42" s="50"/>
       <c r="B42" s="15" t="s">
         <v>90</v>
       </c>
@@ -4025,7 +4026,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="51">
+      <c r="A43" s="49">
         <v>8</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -4037,7 +4038,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
+      <c r="A44" s="49"/>
       <c r="B44" s="12" t="s">
         <v>92</v>
       </c>
@@ -4046,7 +4047,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="12" t="s">
         <v>93</v>
       </c>
@@ -4055,7 +4056,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
+      <c r="A46" s="49"/>
       <c r="B46" s="12" t="s">
         <v>94</v>
       </c>
@@ -4064,7 +4065,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="12" t="s">
         <v>95</v>
       </c>
@@ -4073,7 +4074,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
+      <c r="A48" s="49"/>
       <c r="B48" s="12" t="s">
         <v>96</v>
       </c>
@@ -4082,7 +4083,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="12" t="s">
         <v>97</v>
       </c>
@@ -4091,7 +4092,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="12" t="s">
         <v>98</v>
       </c>
@@ -4100,7 +4101,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="52"/>
+      <c r="A51" s="50"/>
       <c r="B51" s="15" t="s">
         <v>99</v>
       </c>
@@ -4109,7 +4110,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="50">
+      <c r="A52" s="48">
         <v>9</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -4121,25 +4122,25 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
-      <c r="B53" s="31" t="s">
+      <c r="A53" s="49"/>
+      <c r="B53" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="32">
+      <c r="C53" s="31">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="31" t="s">
+      <c r="A54" s="49"/>
+      <c r="B54" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="32">
+      <c r="C54" s="31">
         <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
+      <c r="A55" s="49"/>
       <c r="B55" s="12" t="s">
         <v>108</v>
       </c>
@@ -4148,7 +4149,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
+      <c r="A56" s="49"/>
       <c r="B56" s="12" t="s">
         <v>109</v>
       </c>
@@ -4157,7 +4158,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
+      <c r="A57" s="49"/>
       <c r="B57" s="12" t="s">
         <v>110</v>
       </c>
@@ -4166,25 +4167,25 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
-      <c r="B58" s="31" t="s">
+      <c r="A58" s="49"/>
+      <c r="B58" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="32">
+      <c r="C58" s="31">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="52"/>
-      <c r="B59" s="38" t="s">
+      <c r="A59" s="50"/>
+      <c r="B59" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="C59" s="39">
+      <c r="C59" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="50">
+      <c r="A60" s="48">
         <v>10</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -4196,44 +4197,44 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
+      <c r="A61" s="49"/>
       <c r="B61" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="22">
+      <c r="C61" s="21">
         <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="51"/>
+      <c r="A62" s="49"/>
       <c r="B62" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="22">
+      <c r="C62" s="21">
         <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="51"/>
+      <c r="A63" s="49"/>
       <c r="B63" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C63" s="22">
+      <c r="C63" s="21">
         <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="51"/>
-      <c r="B64" s="20" t="s">
+      <c r="A64" s="49"/>
+      <c r="B64" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C64" s="22">
+      <c r="C64" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="52"/>
-      <c r="B65" s="21" t="s">
+      <c r="A65" s="50"/>
+      <c r="B65" s="20" t="s">
         <v>138</v>
       </c>
       <c r="C65" s="16">
@@ -4241,7 +4242,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="50">
+      <c r="A66" s="48">
         <v>11</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -4252,7 +4253,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="51"/>
+      <c r="A67" s="49"/>
       <c r="B67" s="18" t="s">
         <v>128</v>
       </c>
@@ -4261,226 +4262,226 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="51"/>
-      <c r="B68" s="18" t="s">
+      <c r="A68" s="49"/>
+      <c r="B68" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C68" s="31">
         <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="51"/>
-      <c r="B69" s="18" t="s">
+      <c r="A69" s="49"/>
+      <c r="B69" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="C69" s="11">
+      <c r="C69" s="31">
         <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="51"/>
-      <c r="B70" s="18" t="s">
+      <c r="A70" s="49"/>
+      <c r="B70" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C70" s="31">
         <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="51"/>
-      <c r="B71" s="19" t="s">
+      <c r="A71" s="49"/>
+      <c r="B71" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="C71" s="11">
+      <c r="C71" s="31">
         <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="52"/>
-      <c r="B72" s="40" t="s">
+      <c r="A72" s="50"/>
+      <c r="B72" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="C72" s="39">
+      <c r="C72" s="38">
         <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="53">
+      <c r="A73" s="45">
         <v>12</v>
       </c>
-      <c r="B73" s="28" t="s">
+      <c r="B73" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C73" s="28">
+      <c r="C73" s="27">
         <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="54"/>
-      <c r="B74" s="33" t="s">
+      <c r="A74" s="46"/>
+      <c r="B74" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="C74" s="30">
+      <c r="C74" s="29">
         <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="54"/>
-      <c r="B75" s="33" t="s">
+      <c r="A75" s="46"/>
+      <c r="B75" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="C75" s="30">
+      <c r="C75" s="29">
         <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="55"/>
-      <c r="B76" s="38" t="s">
+      <c r="A76" s="47"/>
+      <c r="B76" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="C76" s="35">
+      <c r="C76" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="53">
+      <c r="A77" s="45">
         <v>13</v>
       </c>
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="C77" s="28">
+      <c r="C77" s="27">
         <f>89+59</f>
         <v>148</v>
       </c>
-      <c r="E77" s="27"/>
+      <c r="E77" s="26"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="54"/>
-      <c r="B78" s="33" t="s">
+      <c r="A78" s="46"/>
+      <c r="B78" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="C78" s="30">
+      <c r="C78" s="29">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="54"/>
-      <c r="B79" s="33" t="s">
+      <c r="A79" s="46"/>
+      <c r="B79" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="C79" s="30">
+      <c r="C79" s="29">
         <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="54"/>
-      <c r="B80" s="33" t="s">
+      <c r="A80" s="46"/>
+      <c r="B80" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="C80" s="30">
+      <c r="C80" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="54"/>
-      <c r="B81" s="31" t="s">
+      <c r="A81" s="46"/>
+      <c r="B81" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="C81" s="30">
+      <c r="C81" s="29">
         <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="54"/>
-      <c r="B82" s="34" t="s">
+      <c r="A82" s="46"/>
+      <c r="B82" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="C82" s="30">
+      <c r="C82" s="29">
         <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="54"/>
-      <c r="B83" s="31" t="s">
+      <c r="A83" s="46"/>
+      <c r="B83" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C83" s="30">
+      <c r="C83" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
-      <c r="B84" s="35" t="s">
+      <c r="A84" s="47"/>
+      <c r="B84" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="C84" s="35">
+      <c r="C84" s="34">
         <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="53">
+      <c r="A85" s="45">
         <v>14</v>
       </c>
-      <c r="B85" s="29" t="s">
+      <c r="B85" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C85" s="28">
+      <c r="C85" s="27">
         <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="54"/>
-      <c r="B86" s="33" t="s">
+      <c r="A86" s="46"/>
+      <c r="B86" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="C86" s="37">
+      <c r="C86" s="36">
         <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="54"/>
-      <c r="B87" s="33" t="s">
+      <c r="A87" s="46"/>
+      <c r="B87" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="C87" s="30">
+      <c r="C87" s="29">
         <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="54"/>
-      <c r="B88" s="33" t="s">
+      <c r="A88" s="46"/>
+      <c r="B88" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="C88" s="30">
+      <c r="C88" s="29">
         <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="54"/>
-      <c r="B89" s="33" t="s">
+      <c r="A89" s="46"/>
+      <c r="B89" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="C89" s="30">
+      <c r="C89" s="29">
         <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="54"/>
-      <c r="B90" s="31" t="s">
+      <c r="A90" s="46"/>
+      <c r="B90" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="C90" s="30">
+      <c r="C90" s="29">
         <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="55"/>
-      <c r="B91" s="36" t="s">
+      <c r="A91" s="47"/>
+      <c r="B91" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="C91" s="35">
+      <c r="C91" s="34">
         <v>3</v>
       </c>
     </row>
@@ -4499,6 +4500,11 @@
   </sheetData>
   <autoFilter ref="C1:C96"/>
   <mergeCells count="14">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A28"/>
     <mergeCell ref="A73:A76"/>
     <mergeCell ref="A77:A84"/>
     <mergeCell ref="A85:A91"/>
@@ -4508,11 +4514,6 @@
     <mergeCell ref="A43:A51"/>
     <mergeCell ref="A52:A59"/>
     <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4947,10 +4948,10 @@
       <c r="A46" s="3">
         <v>46</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="56"/>
+      <c r="C46" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Danger Signs.xlsx
+++ b/Danger Signs.xlsx
@@ -1913,7 +1913,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1976,6 +1976,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2140,7 +2147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2171,7 +2178,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2211,6 +2217,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2250,11 +2261,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -5919,8 +5927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5942,101 +5950,101 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="52">
+      <c r="A2" s="56">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="18">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="37">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="37">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="26" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="37">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="56"/>
+      <c r="B6" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="37">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="56"/>
+      <c r="B7" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="53">
+      <c r="A8" s="57">
         <v>2</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="26" t="s">
+      <c r="A9" s="58"/>
+      <c r="B9" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="37">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="26" t="s">
+      <c r="A10" s="58"/>
+      <c r="B10" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="37">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="31" t="s">
+      <c r="A11" s="59"/>
+      <c r="B11" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
+      <c r="A12" s="60">
         <v>3</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -6048,25 +6056,25 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
-      <c r="B13" s="26" t="s">
+      <c r="A13" s="60"/>
+      <c r="B13" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="60"/>
+      <c r="B14" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="8" t="s">
         <v>62</v>
       </c>
@@ -6075,7 +6083,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="10" t="s">
         <v>63</v>
       </c>
@@ -6084,7 +6092,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="56">
+      <c r="A17" s="60">
         <v>4</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -6095,25 +6103,25 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
-      <c r="B18" s="26" t="s">
+      <c r="A18" s="60"/>
+      <c r="B18" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="60"/>
+      <c r="B19" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="8" t="s">
         <v>68</v>
       </c>
@@ -6122,7 +6130,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="8" t="s">
         <v>69</v>
       </c>
@@ -6131,16 +6139,16 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
-      <c r="B22" s="31" t="s">
+      <c r="A22" s="60"/>
+      <c r="B22" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="30">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="49">
+      <c r="A23" s="53">
         <v>5</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -6151,7 +6159,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="12" t="s">
         <v>72</v>
       </c>
@@ -6160,7 +6168,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="13" t="s">
         <v>73</v>
       </c>
@@ -6169,7 +6177,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="12" t="s">
         <v>74</v>
       </c>
@@ -6178,7 +6186,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="12" t="s">
         <v>75</v>
       </c>
@@ -6187,7 +6195,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="15" t="s">
         <v>76</v>
       </c>
@@ -6196,7 +6204,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="49">
+      <c r="A29" s="53">
         <v>6</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -6208,7 +6216,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="12" t="s">
         <v>78</v>
       </c>
@@ -6217,52 +6225,52 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="27" t="s">
+      <c r="A31" s="54"/>
+      <c r="B31" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="27" t="s">
+      <c r="A32" s="54"/>
+      <c r="B32" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="27" t="s">
+      <c r="A33" s="54"/>
+      <c r="B33" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C33" s="27">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="B34" s="27" t="s">
+      <c r="A34" s="54"/>
+      <c r="B34" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="27">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="34" t="s">
+      <c r="A35" s="55"/>
+      <c r="B35" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="34">
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="49">
+      <c r="A36" s="53">
         <v>7</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -6274,7 +6282,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="12" t="s">
         <v>85</v>
       </c>
@@ -6283,7 +6291,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="12" t="s">
         <v>86</v>
       </c>
@@ -6292,7 +6300,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="12" t="s">
         <v>87</v>
       </c>
@@ -6301,7 +6309,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="12" t="s">
         <v>88</v>
       </c>
@@ -6310,7 +6318,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="12" t="s">
         <v>89</v>
       </c>
@@ -6319,7 +6327,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
+      <c r="A42" s="55"/>
       <c r="B42" s="15" t="s">
         <v>90</v>
       </c>
@@ -6328,7 +6336,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="50">
+      <c r="A43" s="54">
         <v>8</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -6340,7 +6348,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="12" t="s">
         <v>92</v>
       </c>
@@ -6349,7 +6357,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="12" t="s">
         <v>93</v>
       </c>
@@ -6358,7 +6366,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="12" t="s">
         <v>94</v>
       </c>
@@ -6367,7 +6375,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="12" t="s">
         <v>95</v>
       </c>
@@ -6376,7 +6384,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
+      <c r="A48" s="54"/>
       <c r="B48" s="12" t="s">
         <v>96</v>
       </c>
@@ -6385,7 +6393,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
+      <c r="A49" s="54"/>
       <c r="B49" s="12" t="s">
         <v>97</v>
       </c>
@@ -6394,7 +6402,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="50"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="12" t="s">
         <v>98</v>
       </c>
@@ -6403,7 +6411,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
+      <c r="A51" s="55"/>
       <c r="B51" s="15" t="s">
         <v>99</v>
       </c>
@@ -6412,7 +6420,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="49">
+      <c r="A52" s="53">
         <v>9</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -6424,34 +6432,34 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="50"/>
-      <c r="B53" s="27" t="s">
+      <c r="A53" s="54"/>
+      <c r="B53" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="28">
+      <c r="C53" s="27">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="50"/>
-      <c r="B54" s="27" t="s">
+      <c r="A54" s="54"/>
+      <c r="B54" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="28">
+      <c r="C54" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="50"/>
-      <c r="B55" s="12" t="s">
+      <c r="A55" s="54"/>
+      <c r="B55" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="64">
         <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="50"/>
+      <c r="A56" s="54"/>
       <c r="B56" s="12" t="s">
         <v>109</v>
       </c>
@@ -6460,7 +6468,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="50"/>
+      <c r="A57" s="54"/>
       <c r="B57" s="12" t="s">
         <v>110</v>
       </c>
@@ -6469,25 +6477,25 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="50"/>
-      <c r="B58" s="27" t="s">
+      <c r="A58" s="54"/>
+      <c r="B58" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="28">
+      <c r="C58" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
-      <c r="B59" s="34" t="s">
+      <c r="A59" s="55"/>
+      <c r="B59" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="C59" s="35">
+      <c r="C59" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="49">
+      <c r="A60" s="53">
         <v>10</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -6499,52 +6507,52 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="50"/>
-      <c r="B61" s="59" t="s">
+      <c r="A61" s="54"/>
+      <c r="B61" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="60">
+      <c r="C61" s="46">
         <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="50"/>
-      <c r="B62" s="59" t="s">
+      <c r="A62" s="54"/>
+      <c r="B62" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="60">
+      <c r="C62" s="46">
         <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="50"/>
-      <c r="B63" s="59" t="s">
+      <c r="A63" s="54"/>
+      <c r="B63" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="C63" s="60">
+      <c r="C63" s="46">
         <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="50"/>
-      <c r="B64" s="61" t="s">
+      <c r="A64" s="54"/>
+      <c r="B64" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="C64" s="60">
+      <c r="C64" s="46">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="51"/>
-      <c r="B65" s="62" t="s">
+      <c r="A65" s="55"/>
+      <c r="B65" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="C65" s="63">
+      <c r="C65" s="49">
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="49">
+      <c r="A66" s="53">
         <v>11</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -6555,235 +6563,235 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="50"/>
-      <c r="B67" s="18" t="s">
+      <c r="A67" s="54"/>
+      <c r="B67" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="C67" s="11">
+      <c r="C67" s="27">
         <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="50"/>
-      <c r="B68" s="40" t="s">
+      <c r="A68" s="54"/>
+      <c r="B68" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="28">
+      <c r="C68" s="27">
         <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="50"/>
-      <c r="B69" s="40" t="s">
+      <c r="A69" s="54"/>
+      <c r="B69" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="C69" s="28">
+      <c r="C69" s="27">
         <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="50"/>
-      <c r="B70" s="40" t="s">
+      <c r="A70" s="54"/>
+      <c r="B70" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="28">
+      <c r="C70" s="27">
         <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="50"/>
-      <c r="B71" s="41" t="s">
+      <c r="A71" s="54"/>
+      <c r="B71" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="C71" s="28">
+      <c r="C71" s="27">
         <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="51"/>
-      <c r="B72" s="36" t="s">
+      <c r="A72" s="55"/>
+      <c r="B72" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C72" s="35">
+      <c r="C72" s="34">
         <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="46">
+      <c r="A73" s="50">
         <v>12</v>
       </c>
-      <c r="B73" s="24" t="s">
+      <c r="B73" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C73" s="24">
+      <c r="C73" s="23">
         <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="47"/>
-      <c r="B74" s="29" t="s">
+      <c r="A74" s="51"/>
+      <c r="B74" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C74" s="26">
+      <c r="C74" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="47"/>
-      <c r="B75" s="29" t="s">
+      <c r="A75" s="51"/>
+      <c r="B75" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="C75" s="26">
+      <c r="C75" s="25">
         <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="48"/>
-      <c r="B76" s="34" t="s">
+      <c r="A76" s="52"/>
+      <c r="B76" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="C76" s="31">
+      <c r="C76" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="46">
+      <c r="A77" s="50">
         <v>13</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C77" s="24">
+      <c r="C77" s="23">
         <f>89+59</f>
         <v>148</v>
       </c>
-      <c r="E77" s="23"/>
+      <c r="E77" s="22"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="47"/>
-      <c r="B78" s="29" t="s">
+      <c r="A78" s="51"/>
+      <c r="B78" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="C78" s="26">
+      <c r="C78" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="47"/>
-      <c r="B79" s="29" t="s">
+      <c r="A79" s="51"/>
+      <c r="B79" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="C79" s="26">
+      <c r="C79" s="25">
         <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="47"/>
-      <c r="B80" s="29" t="s">
+      <c r="A80" s="51"/>
+      <c r="B80" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C80" s="26">
+      <c r="C80" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="47"/>
-      <c r="B81" s="27" t="s">
+      <c r="A81" s="51"/>
+      <c r="B81" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C81" s="26">
+      <c r="C81" s="25">
         <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="47"/>
-      <c r="B82" s="30" t="s">
+      <c r="A82" s="51"/>
+      <c r="B82" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C82" s="26">
+      <c r="C82" s="25">
         <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="47"/>
-      <c r="B83" s="27" t="s">
+      <c r="A83" s="51"/>
+      <c r="B83" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C83" s="26">
+      <c r="C83" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="48"/>
-      <c r="B84" s="31" t="s">
+      <c r="A84" s="52"/>
+      <c r="B84" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C84" s="31">
+      <c r="C84" s="30">
         <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="46">
+      <c r="A85" s="50">
         <v>14</v>
       </c>
-      <c r="B85" s="25" t="s">
+      <c r="B85" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C85" s="24">
+      <c r="C85" s="23">
         <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="47"/>
-      <c r="B86" s="29" t="s">
+      <c r="A86" s="51"/>
+      <c r="B86" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C86" s="33">
+      <c r="C86" s="32">
         <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="47"/>
-      <c r="B87" s="29" t="s">
+      <c r="A87" s="51"/>
+      <c r="B87" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="C87" s="26">
+      <c r="C87" s="25">
         <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="47"/>
-      <c r="B88" s="29" t="s">
+      <c r="A88" s="51"/>
+      <c r="B88" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C88" s="26">
+      <c r="C88" s="25">
         <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="47"/>
-      <c r="B89" s="29" t="s">
+      <c r="A89" s="51"/>
+      <c r="B89" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="C89" s="26">
+      <c r="C89" s="25">
         <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="47"/>
-      <c r="B90" s="27" t="s">
+      <c r="A90" s="51"/>
+      <c r="B90" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C90" s="26">
+      <c r="C90" s="25">
         <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="48"/>
-      <c r="B91" s="32" t="s">
+      <c r="A91" s="52"/>
+      <c r="B91" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="C91" s="31">
+      <c r="C91" s="30">
         <v>3</v>
       </c>
     </row>
@@ -7264,10 +7272,10 @@
       <c r="A46" s="3">
         <v>46</v>
       </c>
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="58"/>
+      <c r="C46" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7291,28 +7299,28 @@
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="86.85546875" style="44" customWidth="1"/>
+    <col min="3" max="3" width="86.85546875" style="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="2" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="42" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="42" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="5" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="42" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7322,53 +7330,53 @@
     <row r="10" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="42" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="13" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="42" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="14" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="42" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="42" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="16" spans="3:3" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="41" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="42" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="18" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="42" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="20" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="42" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="21" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="42" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="22" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="42" t="s">
         <v>153</v>
       </c>
     </row>
@@ -7378,7 +7386,7 @@
     <row r="26" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="42" t="s">
         <v>150</v>
       </c>
     </row>
@@ -7391,63 +7399,63 @@
     <row r="35" spans="3:3" ht="92.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="3:3" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="42" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="38" spans="3:3" ht="102.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="3:3" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="42" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="40" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="42" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="41" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="42" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="42" spans="3:3" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="42" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="43" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="43" t="s">
+      <c r="C43" s="42" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="44" spans="3:3" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="44" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="45" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="42" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="46" spans="3:3" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="43" t="s">
+      <c r="C46" s="42" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="47" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="43" t="s">
+      <c r="C47" s="42" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="48" spans="3:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="43" t="s">
+      <c r="C48" s="42" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="49" spans="3:3" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="42" t="s">
         <v>161</v>
       </c>
     </row>
